--- a/ResultadoEleicoesDistritos/ÉVORA_ESTREMOZ.xlsx
+++ b/ResultadoEleicoesDistritos/ÉVORA_ESTREMOZ.xlsx
@@ -597,64 +597,64 @@
         <v>3289</v>
       </c>
       <c r="H2" t="n">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="I2" t="n">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="J2" t="n">
-        <v>1304</v>
+        <v>1322</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="M2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N2" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="S2" t="n">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="T2" t="n">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="U2" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="V2" t="n">
-        <v>2155</v>
+        <v>2135</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>2144</v>
+        <v>2124</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AA2" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
